--- a/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
+++ b/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F77E36-423C-4E0F-8CC0-397870367642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837C03B-5D3E-4754-AE38-EC82FB01DA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LH_TC_FEATURENAME" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>V1.0</t>
   </si>
   <si>
-    <t>Eman</t>
-  </si>
-  <si>
     <t>intial</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdelmageed</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -412,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -794,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -817,82 +820,82 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="19" customFormat="1" ht="279" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="24"/>
       <c r="J9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>35</v>
-      </c>
       <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -919,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,15 +948,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()</f>

--- a/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
+++ b/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837C03B-5D3E-4754-AE38-EC82FB01DA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B96A9-D9BB-4CA4-85BB-3FAA03CFEDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LH_TC_FEATURENAME" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Preconditions</t>
   </si>
@@ -100,12 +100,6 @@
   </si>
   <si>
     <t>priority</t>
-  </si>
-  <si>
-    <t>TC_NOTIFICATION_001</t>
-  </si>
-  <si>
-    <t>TC_NOTIFICATION_002</t>
   </si>
   <si>
     <t>1. User is logged into the system.  
@@ -114,19 +108,6 @@
   </si>
   <si>
     <t>Testing the functionality of toggling the"Follow" option for categories</t>
-  </si>
-  <si>
-    <t>1. Navigate to the categories page.  
-2. Select a category to follow.  
-3. Toggle the "Follow" option for the selected category.  
-4. Refresh the page to ensure the "Follow" state persists.  
-5. Verify that the preference is correctly stored in the database.</t>
-  </si>
-  <si>
-    <t>1. The categories page is displayed.  
-2. The selected category's "Follow" option is toggled successfully.  
-3. The "Follow" state is consistent after refreshing the page.  
-4. The preference is saved in the database.</t>
   </si>
   <si>
     <t>High</t>
@@ -143,33 +124,55 @@
 4. Verify that unread notifications are displayed.  </t>
   </si>
   <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>SRS-NOT-001</t>
+  </si>
+  <si>
+    <t>SRS-NOT-002</t>
+  </si>
+  <si>
+    <t>Testing the ability to display unread notifications via the bell icon dropdown</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdelmageed</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Category:Sports</t>
+  </si>
+  <si>
+    <t>1. The categories page is displayed.  
+2. The selected category's "Following" option is toggled successfully.  
+3. The "Following" state is consistent after refreshing the page.  
+4. The preference is saved in the database.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the categories page.  
+2. Select a category to follow.  
+3. Toggle the "Follow" option for the selected category to change to "Following".  
+4. Refresh the page to ensure the "Following" state persists.  
+5. Verify that the preference is correctly stored in the database.</t>
+  </si>
+  <si>
+    <t>The Unread notification that exists to verify(For example"You have a new message from Admin"</t>
+  </si>
+  <si>
+    <t>LH-TC-NOTIFICATION-001</t>
+  </si>
+  <si>
+    <t>LH-TC-NOTIFICATION-002</t>
+  </si>
+  <si>
     <t>1. The home page displays the bell icon.  
 2. Clicking the bell icon opens the dropdown.  
-3. Unread notifications are visible in the dropdown.</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>SRS-NOT-001</t>
-  </si>
-  <si>
-    <t>SRS-NOT-002</t>
-  </si>
-  <si>
-    <t>Testing the ability to display unread notifications via the bell icon dropdown</t>
-  </si>
-  <si>
-    <t>Notification</t>
-  </si>
-  <si>
-    <t>The Unread notification that exists to verify</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Mahmoud Abdelmageed</t>
+3. Unread notifications are visible in the dropdown which is "You have a new message from Admin"</t>
   </si>
 </sst>
 </file>
@@ -743,14 +746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="50" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" style="9" customWidth="1"/>
@@ -774,11 +777,13 @@
       <c r="D1" s="13"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="I2" s="22"/>
@@ -787,7 +792,9 @@
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="I3" s="22"/>
@@ -797,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -844,58 +851,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="19" customFormat="1" ht="279" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="19" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="24"/>
       <c r="J9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -953,14 +960,14 @@
         <v>14</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45767</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">

--- a/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
+++ b/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5B96A9-D9BB-4CA4-85BB-3FAA03CFEDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE505E-617E-4DEB-B5D0-E336849C32B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LH_TC_FEATURENAME" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Preconditions</t>
   </si>
@@ -173,6 +173,12 @@
     <t>1. The home page displays the bell icon.  
 2. Clicking the bell icon opens the dropdown.  
 3. Unread notifications are visible in the dropdown which is "You have a new message from Admin"</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>Updated the Testcases according to the review</t>
   </si>
 </sst>
 </file>
@@ -746,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -929,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,11 +976,20 @@
         <v>45768</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6">
+        <f ca="1">TODAY()</f>
+        <v>45768</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -1001,6 +1016,7 @@
       <c r="D7" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
+++ b/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EE505E-617E-4DEB-B5D0-E336849C32B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B8151-A21C-42AF-991C-45CED785EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LH_TC_FEATURENAME" sheetId="1" r:id="rId1"/>
+    <sheet name="LH_TC_NOTIFICATION" sheetId="1" r:id="rId1"/>
     <sheet name="VESRION HISTORY" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LH_TC_FEATURENAME!$A$8:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LH_TC_NOTIFICATION!$A$8:$I$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -752,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
+++ b/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\Group-3-Learning-hub-dev\LH_TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B8151-A21C-42AF-991C-45CED785EC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="LH_TC_NOTIFICATION" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LH_TC_NOTIFICATION!$A$8:$I$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Preconditions</t>
   </si>
@@ -122,15 +121,6 @@
 2. Locate the bell icon for notifications.  
 3. Click the bell icon to open the dropdown.  
 4. Verify that unread notifications are displayed.  </t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>SRS-NOT-001</t>
-  </si>
-  <si>
-    <t>SRS-NOT-002</t>
   </si>
   <si>
     <t>Testing the ability to display unread notifications via the bell icon dropdown</t>
@@ -161,9 +151,6 @@
 5. Verify that the preference is correctly stored in the database.</t>
   </si>
   <si>
-    <t>The Unread notification that exists to verify(For example"You have a new message from Admin"</t>
-  </si>
-  <si>
     <t>LH-TC-NOTIFICATION-001</t>
   </si>
   <si>
@@ -179,13 +166,107 @@
   </si>
   <si>
     <t>Updated the Testcases according to the review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH-TC-NOTIFICATION-003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the unread notification count disappears after opening dropdown </t>
+  </si>
+  <si>
+    <t>1. User is logged into the system.
+2. Unread notifications exist.
+3. The system is operational.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Observe the notification count on the bell icon.
+3. Click the bell icon to open dropdown.
+4. Observe the bell again.</t>
+  </si>
+  <si>
+    <t>1. The bell icon initially displays a count badge.
+2. After opening the dropdown, the count badge disappears.</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>LH-SRS-NOTIFICATIONS-001</t>
+  </si>
+  <si>
+    <t>LH-TC-NOTIFICATION-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that notification count updates automatically when new notifications arrive
+</t>
+  </si>
+  <si>
+    <t>1. User is logged in
+2. Bell icon with notification count is visible
+3. A new notification is triggered in real time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification count on the bell icon increases automatically (e.g., from 1 to 2) in real time
+</t>
+  </si>
+  <si>
+    <t>LH-SRS-NOTIFICATIONS-004</t>
+  </si>
+  <si>
+    <t>1. Navigate to any page with bell icon visible
+2. Observe the current count on the bell icon
+3. Trigger a new notification for the user 
+4. Verify the count on the bell icon increments automatically without refreshing the page</t>
+  </si>
+  <si>
+    <t>LH-SRS-NOTIFICATIONS-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH-SRS-NOTIFICATIONS-003
+</t>
+  </si>
+  <si>
+    <t>LH-TC-NOTIFICATION-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the presence of the “Notifications from Followed Categories” section with correct label
+</t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page
+2. Locate the section titled “Notifications from Followed Categories”
+3. Verify that the section is present and the title is correctly spelled</t>
+  </si>
+  <si>
+    <t>1. User is logged into the system
+3. The system is operational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The home page displays a section labeled exactly as “Notifications from Followed Categories”
+</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>Hala Eldaly</t>
+  </si>
+  <si>
+    <t>Updated Testcases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -357,11 +438,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -400,36 +507,108 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -464,9 +643,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -504,9 +683,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -541,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,7 +755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -749,30 +928,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="30.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="50" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="9"/>
+    <col min="4" max="4" width="38.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="14" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -781,51 +960,51 @@
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="13"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.3">
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="51.6" x14ac:dyDescent="0.3">
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="52.5">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -857,97 +1036,210 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="19" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:10" s="18" customFormat="1" ht="305.45" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" ht="305.45" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="217.15" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="217.15" customHeight="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="217.15" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="9" t="s">
+      <c r="H13" s="25"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="1:10">
+      <c r="I14" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:I9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A8:I9"/>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="I9:I1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="I9:I10 I14:I1048576">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1048576">
       <formula1>"Pass, Fail, Blocked, N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -961,55 +1253,63 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="42">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>31</v>
+      <c r="B2" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.4">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63">
       <c r="A3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>

--- a/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
+++ b/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\Group-3-Learning-hub-dev\LH_TESTCASES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\oooo\Group-3-Learning-hub-dev\LH_TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LH_TC_NOTIFICATION" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>Preconditions</t>
   </si>
@@ -115,15 +115,6 @@
     <t>1. User is logged into the system.  
 2. Unread notifications exist.  
 3. The system is operational.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to the home page
-2. Locate the bell icon for notifications.  
-3. Click the bell icon to open the dropdown.  
-4. Verify that unread notifications are displayed.  </t>
-  </si>
-  <si>
-    <t>Testing the ability to display unread notifications via the bell icon dropdown</t>
   </si>
   <si>
     <t>Notification</t>
@@ -157,11 +148,6 @@
     <t>LH-TC-NOTIFICATION-002</t>
   </si>
   <si>
-    <t>1. The home page displays the bell icon.  
-2. Clicking the bell icon opens the dropdown.  
-3. Unread notifications are visible in the dropdown which is "You have a new message from Admin"</t>
-  </si>
-  <si>
     <t>V1.1</t>
   </si>
   <si>
@@ -169,9 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">LH-TC-NOTIFICATION-003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the unread notification count disappears after opening dropdown </t>
   </si>
   <si>
     <t>1. User is logged into the system.
@@ -179,16 +162,6 @@
 3. The system is operational.</t>
   </si>
   <si>
-    <t>1. Navigate to the home page.
-2. Observe the notification count on the bell icon.
-3. Click the bell icon to open dropdown.
-4. Observe the bell again.</t>
-  </si>
-  <si>
-    <t>1. The bell icon initially displays a count badge.
-2. After opening the dropdown, the count badge disappears.</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -214,12 +187,6 @@
     <t>LH-SRS-NOTIFICATIONS-004</t>
   </si>
   <si>
-    <t>1. Navigate to any page with bell icon visible
-2. Observe the current count on the bell icon
-3. Trigger a new notification for the user 
-4. Verify the count on the bell icon increments automatically without refreshing the page</t>
-  </si>
-  <si>
     <t>LH-SRS-NOTIFICATIONS-005</t>
   </si>
   <si>
@@ -253,20 +220,68 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>V1.2</t>
-  </si>
-  <si>
     <t>Hala Eldaly</t>
   </si>
   <si>
     <t>Updated Testcases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing the ability to display unread notifications via the bell icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to any page with bell icon visible
+2. Observe the current count on the bell icon
+3. Trigger a new notification for the user 
+4. Verify the count on the bell icon increments </t>
+  </si>
+  <si>
+    <t>1. Navigate to the home page.
+2. Observe the notification count on the bell icon.
+3. Click the bell icon.
+4. Observe the bell again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the home page
+2. Locate the bell icon for notifications.  
+3. Click the bell icon
+4. Verify that unread notifications are displayed.  </t>
+  </si>
+  <si>
+    <t>1. The home page displays the bell icon.  
+2. Clicking the bell icon
+3. Unread notifications are visible</t>
+  </si>
+  <si>
+    <t>1. The bell icon initially displays a count badge.
+2.the brll icon count badge disappears.</t>
+  </si>
+  <si>
+    <t>Verify that the unread notification count disappears</t>
+  </si>
+  <si>
+    <t>v2.o</t>
+  </si>
+  <si>
+    <t>V2.1</t>
+  </si>
+  <si>
+    <t>LH-SRS-NOTIFICATIONS-002</t>
+  </si>
+  <si>
+    <t>Verify that the system store followed categories</t>
+  </si>
+  <si>
+    <t>LH-TC-NOTIFICATION-006</t>
+  </si>
+  <si>
+    <t>V2.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +345,15 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +364,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,10 +493,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -538,17 +567,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -929,16 +986,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="D13" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" style="9" customWidth="1"/>
     <col min="3" max="3" width="50" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="9" customWidth="1"/>
@@ -967,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
@@ -978,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
@@ -989,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
@@ -1038,10 +1095,10 @@
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1" ht="305.45" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>22</v>
@@ -1050,13 +1107,13 @@
         <v>21</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="27"/>
@@ -1065,152 +1122,188 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="18" customFormat="1" ht="305.45" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="217.15" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" ht="305.45" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>43</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F11" s="25"/>
       <c r="G11" s="25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="27"/>
       <c r="J11" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="217.15" customHeight="1">
+      <c r="A12" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="217.15" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="29" t="s">
+    <row r="13" spans="1:10" ht="217.15" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="25" t="s">
+      <c r="C13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="217.15" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="217.15" customHeight="1">
-      <c r="A13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="25" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="I14" s="24"/>
+    <row r="15" spans="1:10">
+      <c r="I15" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:I9"/>
   <mergeCells count="1">
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="I9:I10 I14:I1048576">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="I9 I15:I1048576 I11">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I13)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I10)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1227,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1258,56 +1351,72 @@
         <v>14</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">TODAY()</f>
-        <v>45788</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45788</v>
+        <v>45791</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6">
         <v>45788</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45790</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A7" s="7"/>

--- a/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
+++ b/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\oooo\Group-3-Learning-hub-dev\LH_TESTCASES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28CC86-F9C6-4F44-912E-F955379F506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LH_TC_NOTIFICATION" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LH_TC_NOTIFICATION!$A$8:$I$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Preconditions</t>
   </si>
@@ -171,19 +172,6 @@
     <t>LH-TC-NOTIFICATION-004</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that notification count updates automatically when new notifications arrive
-</t>
-  </si>
-  <si>
-    <t>1. User is logged in
-2. Bell icon with notification count is visible
-3. A new notification is triggered in real time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notification count on the bell icon increases automatically (e.g., from 1 to 2) in real time
-</t>
-  </si>
-  <si>
     <t>LH-SRS-NOTIFICATIONS-004</t>
   </si>
   <si>
@@ -229,59 +217,81 @@
     <t xml:space="preserve">Testing the ability to display unread notifications via the bell icon </t>
   </si>
   <si>
+    <t>Verify that the unread notification count disappears</t>
+  </si>
+  <si>
+    <t>V2.1</t>
+  </si>
+  <si>
+    <t>LH-SRS-NOTIFICATIONS-002</t>
+  </si>
+  <si>
+    <t>Verify that the system store followed categories</t>
+  </si>
+  <si>
+    <t>LH-TC-NOTIFICATION-006</t>
+  </si>
+  <si>
+    <t>V2.2</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The categories page is displayed.  
+2. The selected category's "Following" option is toggled successfully.  
+3. The "Following" state is consistent </t>
+  </si>
+  <si>
+    <t>1. Navigate to the categories page.  
+2. Select a category to follow.  
+3. Toggle the "Follow" option for the selected category to change to "Following"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that notification count updates  when new notifications arrive
+</t>
+  </si>
+  <si>
+    <t>1. User is logged in
+2. Bell icon with notification count is visible
+3. A new notification is triggered</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Navigate to any page with bell icon visible
 2. Observe the current count on the bell icon
 3. Trigger a new notification for the user 
-4. Verify the count on the bell icon increments </t>
+4. Verify the count on the bell icon increments after refresh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification count on the bell icon increases automatically (e.g., from 1 to 2) after refresh
+</t>
+  </si>
+  <si>
+    <t>1. The bell icon initially displays a count badge.
+2.the bell icon count badge disappears.</t>
   </si>
   <si>
     <t>1. Navigate to the home page.
 2. Observe the notification count on the bell icon.
-3. Click the bell icon.
+3.click the unread notification
 4. Observe the bell again.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Navigate to the home page
+    <t>1. Navigate to the home page
 2. Locate the bell icon for notifications.  
-3. Click the bell icon
-4. Verify that unread notifications are displayed.  </t>
+3. observe the bell icon counter
+4. Verify that unread notifications are displayed and number as the counter</t>
   </si>
   <si>
     <t>1. The home page displays the bell icon.  
-2. Clicking the bell icon
-3. Unread notifications are visible</t>
-  </si>
-  <si>
-    <t>1. The bell icon initially displays a count badge.
-2.the brll icon count badge disappears.</t>
-  </si>
-  <si>
-    <t>Verify that the unread notification count disappears</t>
-  </si>
-  <si>
-    <t>v2.o</t>
-  </si>
-  <si>
-    <t>V2.1</t>
-  </si>
-  <si>
-    <t>LH-SRS-NOTIFICATIONS-002</t>
-  </si>
-  <si>
-    <t>Verify that the system store followed categories</t>
-  </si>
-  <si>
-    <t>LH-TC-NOTIFICATION-006</t>
-  </si>
-  <si>
-    <t>V2.2</t>
+2. Unread notifications are visible and same number as in the counter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +361,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -497,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -551,9 +568,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
@@ -564,20 +578,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,87 +605,7 @@
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -700,9 +640,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -740,9 +680,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,7 +717,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -812,7 +752,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -985,30 +925,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="51.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="50" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="9"/>
+    <col min="4" max="4" width="38.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1">
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +959,7 @@
       <c r="D1" s="13"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +970,7 @@
       <c r="D2" s="17"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +981,7 @@
       <c r="D3" s="17"/>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1052,262 +992,230 @@
       <c r="D4" s="17"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="52.5">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" ht="305.45" customHeight="1">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:10" s="18" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F10" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="25" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" ht="305.45" customHeight="1">
-      <c r="A10" s="29" t="s">
+    <row r="11" spans="1:10" s="18" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="F13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" ht="305.45" customHeight="1">
-      <c r="A11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="217.15" customHeight="1">
-      <c r="A12" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="217.15" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="217.15" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="I15" s="24"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:I9"/>
+  <autoFilter ref="A8:I9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="I9 I15:I1048576 I11">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="I9:I1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass, Fail, Blocked, N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1317,22 +1225,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="27" thickBot="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="42">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1357,11 +1265,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="6">
-        <f ca="1">TODAY()</f>
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="63">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
@@ -1372,53 +1279,52 @@
         <v>34</v>
       </c>
       <c r="D3" s="6">
-        <f ca="1">TODAY()</f>
-        <v>45791</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6">
         <v>45788</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="6">
         <v>45790</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="6">
         <v>45790</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>

--- a/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
+++ b/LH_TESTCASES/LH_TC_NOTIFICATION.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mego\Desktop\Group-3-Learning-hub-dev (5)\Group-3-Learning-hub-dev\LH_TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD28CC86-F9C6-4F44-912E-F955379F506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F9E847-6362-410E-8DC8-B7E70385EE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LH_TC_NOTIFICATION" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>Preconditions</t>
   </si>
@@ -285,6 +285,23 @@
   <si>
     <t>1. The home page displays the bell icon.  
 2. Unread notifications are visible and same number as in the counter</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The home page displays a section labeled exactly as “Notifications from Followed Categories”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification count on the bell icon increases automatically (e.g., from 1 to 2) after refresh
+</t>
+  </si>
+  <si>
+    <t>V2.3</t>
+  </si>
+  <si>
+    <t>Executed Testcases</t>
   </si>
 </sst>
 </file>
@@ -514,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -522,7 +539,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -928,277 +944,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A13" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="56.109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="50" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="51.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="50" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="I3" s="20"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="I4" s="20"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I5" s="20"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I6" s="20"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="18" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:10" s="17" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="24" t="s">
+      <c r="H9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:10" s="17" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30" t="s">
+      <c r="H10" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:10" s="17" customFormat="1" ht="305.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="24" t="s">
+      <c r="H11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30" t="s">
+      <c r="H12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
+      <c r="H13" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="217.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="24" t="s">
+      <c r="H14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I15" s="23"/>
+      <c r="I15" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:I9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1228,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1298,7 @@
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1272,10 +1312,10 @@
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="6">
@@ -1286,10 +1326,10 @@
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="6">
@@ -1300,10 +1340,10 @@
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="6">
@@ -1314,21 +1354,29 @@
       <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="6">
         <v>45790</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+    <row r="7" spans="1:4" s="3" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45793</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
